--- a/URS/DbLayouts/L8-遵循法令作業/JcicZ050Log.xlsx
+++ b/URS/DbLayouts/L8-遵循法令作業/JcicZ050Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8105E3-9AA3-4695-9F0B-FB7206B52678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC38F7C5-0276-476B-9E9E-6E82D9E3CFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -160,10 +160,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>報送單位代號</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>LastUpdate</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -173,10 +169,6 @@
   </si>
   <si>
     <t>TranKey</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubmitKey</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -257,14 +249,6 @@
   <si>
     <t>債務人繳款資料檔案</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>三位文數字</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Y:債務全數清償;
@@ -901,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K105"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -923,10 +907,10 @@
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
@@ -951,10 +935,10 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1033,10 +1017,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>18</v>
@@ -1052,10 +1036,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>18</v>
@@ -1071,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>17</v>
@@ -1084,230 +1068,214 @@
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="D12" s="14" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E12" s="15">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F12" s="15"/>
-      <c r="G12" s="14" t="s">
-        <v>47</v>
-      </c>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13" s="15">
         <v>9</v>
       </c>
       <c r="F13" s="15"/>
-      <c r="G13" s="14"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="15">
         <v>9</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E15" s="15">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F15" s="15"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="G15" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
+        <v>13</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="15">
         <v>8</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="15">
-        <v>1</v>
-      </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <v>15</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="15">
+        <v>6</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
-        <v>9</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="16" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="C18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="15">
+      <c r="D18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="15">
         <v>8</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
-        <v>10</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="15">
-        <v>6</v>
-      </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="14" t="s">
-        <v>52</v>
-      </c>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E19" s="15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E20" s="15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E21" s="15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="14">
-        <v>14</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="15">
-        <v>6</v>
-      </c>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="15"/>
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="14"/>
     </row>
@@ -1328,6 +1296,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="14"/>
     </row>
@@ -1360,10 +1332,6 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
     </row>
@@ -1429,7 +1397,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="F44" s="15"/>
+      <c r="F44" s="14"/>
       <c r="G44" s="14"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -1439,6 +1407,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
     </row>
@@ -1650,13 +1622,7 @@
       <c r="G69" s="14"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
       <c r="C70" s="16"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C71" s="16"/>
@@ -1689,13 +1655,13 @@
       <c r="C80" s="16"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B81" s="14"/>
       <c r="C81" s="16"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B82" s="14"/>
       <c r="C82" s="16"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C83" s="16"/>
@@ -1727,11 +1693,8 @@
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C92" s="16"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C93" s="16"/>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C105" s="16"/>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C104" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1779,24 +1742,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
